--- a/data/trans_bre/POLIPATOLOGIA_Lim_2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_2-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,55 +539,43 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
       <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -604,8 +590,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,40 +604,30 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,75</t>
+          <t>13,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,14</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>81,25%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>81,25%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>87,03%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>32,28%</t>
         </is>
@@ -668,42 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,17; 19,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,27; 19,47</t>
+          <t>8,93; 17,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,04; 17,54</t>
+          <t>0,48; 12,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 12,19</t>
+          <t>48,49; 122,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,24; 131,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,63; 125,87</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>45,7; 132,57</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 57,27</t>
+          <t>3,69; 58,22</t>
         </is>
       </c>
     </row>
@@ -720,40 +684,30 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,88</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,88</t>
+          <t>11,04</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,04</t>
+          <t>18,95</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,95</t>
+          <t>74,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>74,85%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>73,41%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>152,03%</t>
         </is>
@@ -768,42 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,34; 16,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,76; 16,39</t>
+          <t>7,15; 14,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,42; 14,84</t>
+          <t>14,7; 26,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,51; 26,33</t>
+          <t>49,04; 112,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,76; 111,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,16; 107,92</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>44,25; 107,16</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>87,17; 378,2</t>
+          <t>90,74; 427,69</t>
         </is>
       </c>
     </row>
@@ -820,40 +764,30 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>9,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,31</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>73,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>73,72%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>67,54%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>39,39%</t>
         </is>
@@ -868,42 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,53; 14,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,6; 15,27</t>
+          <t>5,42; 13,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,35; 13,61</t>
+          <t>-4,96; 15,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 15,21</t>
+          <t>40,15; 121,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,18; 112,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,39; 120,27</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>35,32; 116,16</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-31,08; 93,15</t>
+          <t>-24,56; 96,83</t>
         </is>
       </c>
     </row>
@@ -920,40 +844,30 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,78</t>
+          <t>10,29</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,29</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,91</t>
+          <t>60,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>60,66%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>66,02%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>68,08%</t>
         </is>
@@ -968,42 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,85; 14,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,71; 14,5</t>
+          <t>6,61; 13,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,79; 14,36</t>
+          <t>6,3; 16,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,45; 17,14</t>
+          <t>34,86; 93,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,24; 102,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,17; 92,2</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>39,53; 103,55</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>33,48; 100,19</t>
+          <t>35,17; 98,06</t>
         </is>
       </c>
     </row>
@@ -1020,40 +924,30 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,19</t>
+          <t>10,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,85</t>
+          <t>12,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,42</t>
+          <t>71,68%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>71,68%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>72,7%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>72,21%</t>
         </is>
@@ -1068,42 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,24; 14,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,12; 14,24</t>
+          <t>8,98; 12,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,64; 12,72</t>
+          <t>7,28; 16,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,57; 16,34</t>
+          <t>56,77; 87,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,81; 89,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>55,85; 88,77</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>54,63; 89,46</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>44,14; 112,64</t>
+          <t>43,15; 110,98</t>
         </is>
       </c>
     </row>
@@ -1116,12 +1000,12 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
